--- a/public/excel/PHÂN LOẠI.xlsx
+++ b/public/excel/PHÂN LOẠI.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project_V2\quanlykho\kho\public\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skymap/Documents/Project/Quan_ly_kho/public/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E040A7-095D-475A-961E-5BF3F9C6EC7B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C651C45A-69AC-204C-B7F7-8325445C9C30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>ngày</t>
   </si>
@@ -50,17 +50,20 @@
   <si>
     <t>Tên KH</t>
   </si>
+  <si>
+    <t>Kho nhập thành phẩm</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="mm/dd/yyyy"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,13 +128,6 @@
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="163"/>
     </font>
     <font>
       <b/>
@@ -214,15 +210,15 @@
   <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -234,9 +230,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -262,25 +258,25 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -289,7 +285,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -298,21 +294,20 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="166" fontId="11" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="Comma" xfId="22" builtinId="3"/>
@@ -676,18 +671,18 @@
   <dimension ref="A1:K204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" customWidth="1"/>
-    <col min="2" max="3" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="33.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="3" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="9" max="10" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -715,8 +710,11 @@
       <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J1" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="16"/>
@@ -726,10 +724,10 @@
       <c r="G2" s="15"/>
       <c r="H2" s="14"/>
       <c r="I2" s="13"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J2" s="13"/>
+      <c r="K2" s="26"/>
+    </row>
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
       <c r="C3" s="16"/>
@@ -739,10 +737,10 @@
       <c r="G3" s="15"/>
       <c r="H3" s="14"/>
       <c r="I3" s="13"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="27"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J3" s="13"/>
+      <c r="K3" s="26"/>
+    </row>
+    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="9"/>
       <c r="B4" s="10"/>
       <c r="C4" s="16"/>
@@ -752,10 +750,10 @@
       <c r="G4" s="15"/>
       <c r="H4" s="14"/>
       <c r="I4" s="13"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="27"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J4" s="13"/>
+      <c r="K4" s="26"/>
+    </row>
+    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="9"/>
       <c r="B5" s="10"/>
       <c r="C5" s="16"/>
@@ -765,10 +763,10 @@
       <c r="G5" s="15"/>
       <c r="H5" s="14"/>
       <c r="I5" s="13"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="27"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J5" s="13"/>
+      <c r="K5" s="26"/>
+    </row>
+    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="10"/>
       <c r="C6" s="16"/>
@@ -778,10 +776,10 @@
       <c r="G6" s="15"/>
       <c r="H6" s="14"/>
       <c r="I6" s="13"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="27"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J6" s="13"/>
+      <c r="K6" s="26"/>
+    </row>
+    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="16"/>
@@ -791,10 +789,10 @@
       <c r="G7" s="15"/>
       <c r="H7" s="14"/>
       <c r="I7" s="13"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="27"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J7" s="13"/>
+      <c r="K7" s="26"/>
+    </row>
+    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
       <c r="C8" s="16"/>
@@ -804,10 +802,10 @@
       <c r="G8" s="15"/>
       <c r="H8" s="14"/>
       <c r="I8" s="13"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="27"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J8" s="13"/>
+      <c r="K8" s="26"/>
+    </row>
+    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
       <c r="C9" s="16"/>
@@ -817,10 +815,10 @@
       <c r="G9" s="15"/>
       <c r="H9" s="14"/>
       <c r="I9" s="13"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="27"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J9" s="13"/>
+      <c r="K9" s="26"/>
+    </row>
+    <row r="10" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="17"/>
       <c r="C10" s="16"/>
@@ -830,10 +828,10 @@
       <c r="G10" s="15"/>
       <c r="H10" s="14"/>
       <c r="I10" s="13"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="27"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J10" s="13"/>
+      <c r="K10" s="26"/>
+    </row>
+    <row r="11" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="17"/>
       <c r="C11" s="16"/>
@@ -843,10 +841,10 @@
       <c r="G11" s="15"/>
       <c r="H11" s="14"/>
       <c r="I11" s="13"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="27"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J11" s="13"/>
+      <c r="K11" s="26"/>
+    </row>
+    <row r="12" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="17"/>
       <c r="C12" s="16"/>
@@ -856,10 +854,10 @@
       <c r="G12" s="15"/>
       <c r="H12" s="14"/>
       <c r="I12" s="13"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="27"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J12" s="13"/>
+      <c r="K12" s="26"/>
+    </row>
+    <row r="13" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="17"/>
       <c r="C13" s="16"/>
@@ -869,10 +867,10 @@
       <c r="G13" s="15"/>
       <c r="H13" s="14"/>
       <c r="I13" s="13"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="27"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J13" s="13"/>
+      <c r="K13" s="26"/>
+    </row>
+    <row r="14" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="17"/>
       <c r="C14" s="16"/>
@@ -882,10 +880,10 @@
       <c r="G14" s="15"/>
       <c r="H14" s="14"/>
       <c r="I14" s="13"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="27"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J14" s="13"/>
+      <c r="K14" s="26"/>
+    </row>
+    <row r="15" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="10"/>
       <c r="C15" s="16"/>
@@ -895,10 +893,10 @@
       <c r="G15" s="18"/>
       <c r="H15" s="14"/>
       <c r="I15" s="13"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="27"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J15" s="13"/>
+      <c r="K15" s="26"/>
+    </row>
+    <row r="16" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
       <c r="C16" s="16"/>
@@ -908,10 +906,10 @@
       <c r="G16" s="18"/>
       <c r="H16" s="14"/>
       <c r="I16" s="13"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="27"/>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J16" s="13"/>
+      <c r="K16" s="26"/>
+    </row>
+    <row r="17" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="10"/>
       <c r="C17" s="16"/>
@@ -921,10 +919,10 @@
       <c r="G17" s="18"/>
       <c r="H17" s="14"/>
       <c r="I17" s="13"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="27"/>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J17" s="13"/>
+      <c r="K17" s="26"/>
+    </row>
+    <row r="18" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
       <c r="C18" s="16"/>
@@ -934,10 +932,10 @@
       <c r="G18" s="18"/>
       <c r="H18" s="14"/>
       <c r="I18" s="13"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="27"/>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J18" s="13"/>
+      <c r="K18" s="26"/>
+    </row>
+    <row r="19" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="10"/>
       <c r="C19" s="16"/>
@@ -947,10 +945,10 @@
       <c r="G19" s="18"/>
       <c r="H19" s="14"/>
       <c r="I19" s="13"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="27"/>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J19" s="13"/>
+      <c r="K19" s="26"/>
+    </row>
+    <row r="20" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="10"/>
       <c r="C20" s="16"/>
@@ -960,10 +958,10 @@
       <c r="G20" s="18"/>
       <c r="H20" s="14"/>
       <c r="I20" s="13"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="27"/>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J20" s="13"/>
+      <c r="K20" s="26"/>
+    </row>
+    <row r="21" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="10"/>
       <c r="C21" s="16"/>
@@ -973,10 +971,10 @@
       <c r="G21" s="18"/>
       <c r="H21" s="14"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="27"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J21" s="13"/>
+      <c r="K21" s="26"/>
+    </row>
+    <row r="22" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="10"/>
       <c r="C22" s="16"/>
@@ -986,10 +984,10 @@
       <c r="G22" s="18"/>
       <c r="H22" s="14"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="27"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J22" s="13"/>
+      <c r="K22" s="26"/>
+    </row>
+    <row r="23" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
       <c r="C23" s="16"/>
@@ -999,10 +997,10 @@
       <c r="G23" s="18"/>
       <c r="H23" s="14"/>
       <c r="I23" s="13"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="27"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J23" s="13"/>
+      <c r="K23" s="26"/>
+    </row>
+    <row r="24" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
       <c r="C24" s="16"/>
@@ -1012,10 +1010,10 @@
       <c r="G24" s="18"/>
       <c r="H24" s="14"/>
       <c r="I24" s="13"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="27"/>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J24" s="13"/>
+      <c r="K24" s="26"/>
+    </row>
+    <row r="25" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="16"/>
@@ -1025,10 +1023,10 @@
       <c r="G25" s="18"/>
       <c r="H25" s="14"/>
       <c r="I25" s="13"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="27"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J25" s="13"/>
+      <c r="K25" s="26"/>
+    </row>
+    <row r="26" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
       <c r="B26" s="10"/>
       <c r="C26" s="16"/>
@@ -1038,10 +1036,10 @@
       <c r="G26" s="18"/>
       <c r="H26" s="14"/>
       <c r="I26" s="13"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="27"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J26" s="13"/>
+      <c r="K26" s="26"/>
+    </row>
+    <row r="27" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
       <c r="B27" s="10"/>
       <c r="C27" s="16"/>
@@ -1051,10 +1049,10 @@
       <c r="G27" s="18"/>
       <c r="H27" s="14"/>
       <c r="I27" s="13"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="27"/>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J27" s="13"/>
+      <c r="K27" s="26"/>
+    </row>
+    <row r="28" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="9"/>
       <c r="B28" s="10"/>
       <c r="C28" s="16"/>
@@ -1064,10 +1062,10 @@
       <c r="G28" s="18"/>
       <c r="H28" s="14"/>
       <c r="I28" s="13"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="27"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J28" s="13"/>
+      <c r="K28" s="26"/>
+    </row>
+    <row r="29" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
       <c r="B29" s="10"/>
       <c r="C29" s="16"/>
@@ -1077,10 +1075,10 @@
       <c r="G29" s="18"/>
       <c r="H29" s="14"/>
       <c r="I29" s="13"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="27"/>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J29" s="13"/>
+      <c r="K29" s="26"/>
+    </row>
+    <row r="30" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
       <c r="B30" s="10"/>
       <c r="C30" s="16"/>
@@ -1090,10 +1088,10 @@
       <c r="G30" s="18"/>
       <c r="H30" s="14"/>
       <c r="I30" s="13"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="27"/>
-    </row>
-    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J30" s="13"/>
+      <c r="K30" s="26"/>
+    </row>
+    <row r="31" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="B31" s="10"/>
       <c r="C31" s="16"/>
@@ -1103,10 +1101,10 @@
       <c r="G31" s="18"/>
       <c r="H31" s="14"/>
       <c r="I31" s="13"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="27"/>
-    </row>
-    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J31" s="13"/>
+      <c r="K31" s="26"/>
+    </row>
+    <row r="32" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="B32" s="10"/>
       <c r="C32" s="16"/>
@@ -1116,10 +1114,10 @@
       <c r="G32" s="18"/>
       <c r="H32" s="14"/>
       <c r="I32" s="13"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="27"/>
-    </row>
-    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J32" s="13"/>
+      <c r="K32" s="26"/>
+    </row>
+    <row r="33" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
       <c r="B33" s="10"/>
       <c r="C33" s="16"/>
@@ -1129,10 +1127,10 @@
       <c r="G33" s="18"/>
       <c r="H33" s="14"/>
       <c r="I33" s="13"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="27"/>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J33" s="13"/>
+      <c r="K33" s="26"/>
+    </row>
+    <row r="34" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
       <c r="B34" s="10"/>
       <c r="C34" s="16"/>
@@ -1142,10 +1140,10 @@
       <c r="G34" s="18"/>
       <c r="H34" s="14"/>
       <c r="I34" s="13"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="27"/>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J34" s="13"/>
+      <c r="K34" s="26"/>
+    </row>
+    <row r="35" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
       <c r="B35" s="10"/>
       <c r="C35" s="16"/>
@@ -1155,10 +1153,10 @@
       <c r="G35" s="18"/>
       <c r="H35" s="14"/>
       <c r="I35" s="13"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="27"/>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J35" s="13"/>
+      <c r="K35" s="26"/>
+    </row>
+    <row r="36" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
       <c r="B36" s="10"/>
       <c r="C36" s="16"/>
@@ -1168,10 +1166,10 @@
       <c r="G36" s="18"/>
       <c r="H36" s="14"/>
       <c r="I36" s="13"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="27"/>
-    </row>
-    <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J36" s="13"/>
+      <c r="K36" s="26"/>
+    </row>
+    <row r="37" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="9"/>
       <c r="B37" s="10"/>
       <c r="C37" s="16"/>
@@ -1181,10 +1179,10 @@
       <c r="G37" s="18"/>
       <c r="H37" s="14"/>
       <c r="I37" s="13"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="27"/>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J37" s="13"/>
+      <c r="K37" s="26"/>
+    </row>
+    <row r="38" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
       <c r="B38" s="10"/>
       <c r="C38" s="16"/>
@@ -1194,10 +1192,10 @@
       <c r="G38" s="18"/>
       <c r="H38" s="14"/>
       <c r="I38" s="13"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="27"/>
-    </row>
-    <row r="39" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J38" s="13"/>
+      <c r="K38" s="26"/>
+    </row>
+    <row r="39" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="9"/>
       <c r="B39" s="10"/>
       <c r="C39" s="16"/>
@@ -1207,10 +1205,10 @@
       <c r="G39" s="18"/>
       <c r="H39" s="14"/>
       <c r="I39" s="13"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="27"/>
-    </row>
-    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J39" s="13"/>
+      <c r="K39" s="26"/>
+    </row>
+    <row r="40" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="9"/>
       <c r="B40" s="10"/>
       <c r="C40" s="16"/>
@@ -1220,10 +1218,10 @@
       <c r="G40" s="18"/>
       <c r="H40" s="14"/>
       <c r="I40" s="13"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="27"/>
-    </row>
-    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J40" s="13"/>
+      <c r="K40" s="26"/>
+    </row>
+    <row r="41" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
       <c r="B41" s="10"/>
       <c r="C41" s="16"/>
@@ -1233,10 +1231,10 @@
       <c r="G41" s="18"/>
       <c r="H41" s="14"/>
       <c r="I41" s="13"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="27"/>
-    </row>
-    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J41" s="13"/>
+      <c r="K41" s="26"/>
+    </row>
+    <row r="42" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
       <c r="B42" s="10"/>
       <c r="C42" s="16"/>
@@ -1246,10 +1244,10 @@
       <c r="G42" s="18"/>
       <c r="H42" s="14"/>
       <c r="I42" s="13"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="27"/>
-    </row>
-    <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J42" s="13"/>
+      <c r="K42" s="26"/>
+    </row>
+    <row r="43" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
       <c r="B43" s="10"/>
       <c r="C43" s="16"/>
@@ -1259,10 +1257,10 @@
       <c r="G43" s="18"/>
       <c r="H43" s="14"/>
       <c r="I43" s="13"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="27"/>
-    </row>
-    <row r="44" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J43" s="13"/>
+      <c r="K43" s="26"/>
+    </row>
+    <row r="44" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="B44" s="10"/>
       <c r="C44" s="16"/>
@@ -1272,10 +1270,10 @@
       <c r="G44" s="18"/>
       <c r="H44" s="14"/>
       <c r="I44" s="13"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="27"/>
-    </row>
-    <row r="45" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J44" s="13"/>
+      <c r="K44" s="26"/>
+    </row>
+    <row r="45" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
       <c r="B45" s="10"/>
       <c r="C45" s="16"/>
@@ -1285,10 +1283,10 @@
       <c r="G45" s="18"/>
       <c r="H45" s="14"/>
       <c r="I45" s="13"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="27"/>
-    </row>
-    <row r="46" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J45" s="13"/>
+      <c r="K45" s="26"/>
+    </row>
+    <row r="46" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="9"/>
       <c r="B46" s="10"/>
       <c r="C46" s="16"/>
@@ -1298,10 +1296,10 @@
       <c r="G46" s="18"/>
       <c r="H46" s="14"/>
       <c r="I46" s="13"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="27"/>
-    </row>
-    <row r="47" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J46" s="13"/>
+      <c r="K46" s="26"/>
+    </row>
+    <row r="47" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
       <c r="B47" s="10"/>
       <c r="C47" s="16"/>
@@ -1311,10 +1309,10 @@
       <c r="G47" s="18"/>
       <c r="H47" s="14"/>
       <c r="I47" s="13"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="27"/>
-    </row>
-    <row r="48" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J47" s="13"/>
+      <c r="K47" s="26"/>
+    </row>
+    <row r="48" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="9"/>
       <c r="B48" s="10"/>
       <c r="C48" s="16"/>
@@ -1324,10 +1322,10 @@
       <c r="G48" s="18"/>
       <c r="H48" s="14"/>
       <c r="I48" s="13"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="27"/>
-    </row>
-    <row r="49" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J48" s="13"/>
+      <c r="K48" s="26"/>
+    </row>
+    <row r="49" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="9"/>
       <c r="B49" s="10"/>
       <c r="C49" s="16"/>
@@ -1337,10 +1335,10 @@
       <c r="G49" s="18"/>
       <c r="H49" s="14"/>
       <c r="I49" s="13"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="27"/>
-    </row>
-    <row r="50" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J49" s="13"/>
+      <c r="K49" s="26"/>
+    </row>
+    <row r="50" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
       <c r="B50" s="10"/>
       <c r="C50" s="16"/>
@@ -1350,10 +1348,10 @@
       <c r="G50" s="18"/>
       <c r="H50" s="14"/>
       <c r="I50" s="13"/>
-      <c r="J50" s="26"/>
-      <c r="K50" s="27"/>
-    </row>
-    <row r="51" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J50" s="13"/>
+      <c r="K50" s="26"/>
+    </row>
+    <row r="51" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
       <c r="B51" s="10"/>
       <c r="C51" s="16"/>
@@ -1363,10 +1361,10 @@
       <c r="G51" s="18"/>
       <c r="H51" s="14"/>
       <c r="I51" s="13"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="27"/>
-    </row>
-    <row r="52" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J51" s="13"/>
+      <c r="K51" s="26"/>
+    </row>
+    <row r="52" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="9"/>
       <c r="B52" s="10"/>
       <c r="C52" s="16"/>
@@ -1376,10 +1374,10 @@
       <c r="G52" s="18"/>
       <c r="H52" s="14"/>
       <c r="I52" s="13"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="27"/>
-    </row>
-    <row r="53" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J52" s="13"/>
+      <c r="K52" s="26"/>
+    </row>
+    <row r="53" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
       <c r="B53" s="10"/>
       <c r="C53" s="16"/>
@@ -1389,10 +1387,10 @@
       <c r="G53" s="18"/>
       <c r="H53" s="14"/>
       <c r="I53" s="13"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="27"/>
-    </row>
-    <row r="54" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J53" s="13"/>
+      <c r="K53" s="26"/>
+    </row>
+    <row r="54" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
       <c r="B54" s="10"/>
       <c r="C54" s="16"/>
@@ -1402,10 +1400,10 @@
       <c r="G54" s="18"/>
       <c r="H54" s="14"/>
       <c r="I54" s="13"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="27"/>
-    </row>
-    <row r="55" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J54" s="13"/>
+      <c r="K54" s="26"/>
+    </row>
+    <row r="55" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="9"/>
       <c r="B55" s="10"/>
       <c r="C55" s="16"/>
@@ -1415,10 +1413,10 @@
       <c r="G55" s="18"/>
       <c r="H55" s="14"/>
       <c r="I55" s="13"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="27"/>
-    </row>
-    <row r="56" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J55" s="13"/>
+      <c r="K55" s="26"/>
+    </row>
+    <row r="56" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="9"/>
       <c r="B56" s="10"/>
       <c r="C56" s="16"/>
@@ -1428,10 +1426,10 @@
       <c r="G56" s="18"/>
       <c r="H56" s="14"/>
       <c r="I56" s="13"/>
-      <c r="J56" s="26"/>
-      <c r="K56" s="27"/>
-    </row>
-    <row r="57" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J56" s="13"/>
+      <c r="K56" s="26"/>
+    </row>
+    <row r="57" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="9"/>
       <c r="B57" s="10"/>
       <c r="C57" s="16"/>
@@ -1441,10 +1439,10 @@
       <c r="G57" s="18"/>
       <c r="H57" s="14"/>
       <c r="I57" s="13"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="27"/>
-    </row>
-    <row r="58" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J57" s="13"/>
+      <c r="K57" s="26"/>
+    </row>
+    <row r="58" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="9"/>
       <c r="B58" s="10"/>
       <c r="C58" s="16"/>
@@ -1454,10 +1452,10 @@
       <c r="G58" s="18"/>
       <c r="H58" s="14"/>
       <c r="I58" s="13"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="27"/>
-    </row>
-    <row r="59" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J58" s="13"/>
+      <c r="K58" s="26"/>
+    </row>
+    <row r="59" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="9"/>
       <c r="B59" s="10"/>
       <c r="C59" s="16"/>
@@ -1467,10 +1465,10 @@
       <c r="G59" s="18"/>
       <c r="H59" s="14"/>
       <c r="I59" s="13"/>
-      <c r="J59" s="26"/>
-      <c r="K59" s="27"/>
-    </row>
-    <row r="60" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J59" s="13"/>
+      <c r="K59" s="26"/>
+    </row>
+    <row r="60" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="9"/>
       <c r="B60" s="10"/>
       <c r="C60" s="16"/>
@@ -1480,10 +1478,10 @@
       <c r="G60" s="18"/>
       <c r="H60" s="14"/>
       <c r="I60" s="13"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="27"/>
-    </row>
-    <row r="61" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J60" s="13"/>
+      <c r="K60" s="26"/>
+    </row>
+    <row r="61" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="9"/>
       <c r="B61" s="10"/>
       <c r="C61" s="16"/>
@@ -1493,10 +1491,10 @@
       <c r="G61" s="18"/>
       <c r="H61" s="14"/>
       <c r="I61" s="13"/>
-      <c r="J61" s="26"/>
-      <c r="K61" s="27"/>
-    </row>
-    <row r="62" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J61" s="13"/>
+      <c r="K61" s="26"/>
+    </row>
+    <row r="62" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="9"/>
       <c r="B62" s="10"/>
       <c r="C62" s="16"/>
@@ -1506,10 +1504,10 @@
       <c r="G62" s="18"/>
       <c r="H62" s="14"/>
       <c r="I62" s="13"/>
-      <c r="J62" s="26"/>
-      <c r="K62" s="27"/>
-    </row>
-    <row r="63" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J62" s="13"/>
+      <c r="K62" s="26"/>
+    </row>
+    <row r="63" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="9"/>
       <c r="B63" s="10"/>
       <c r="C63" s="16"/>
@@ -1519,10 +1517,10 @@
       <c r="G63" s="18"/>
       <c r="H63" s="14"/>
       <c r="I63" s="13"/>
-      <c r="J63" s="26"/>
-      <c r="K63" s="27"/>
-    </row>
-    <row r="64" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J63" s="13"/>
+      <c r="K63" s="26"/>
+    </row>
+    <row r="64" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="9"/>
       <c r="B64" s="10"/>
       <c r="C64" s="16"/>
@@ -1532,10 +1530,10 @@
       <c r="G64" s="18"/>
       <c r="H64" s="14"/>
       <c r="I64" s="13"/>
-      <c r="J64" s="26"/>
-      <c r="K64" s="27"/>
-    </row>
-    <row r="65" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J64" s="13"/>
+      <c r="K64" s="26"/>
+    </row>
+    <row r="65" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="9"/>
       <c r="B65" s="10"/>
       <c r="C65" s="16"/>
@@ -1545,10 +1543,10 @@
       <c r="G65" s="18"/>
       <c r="H65" s="14"/>
       <c r="I65" s="13"/>
-      <c r="J65" s="26"/>
-      <c r="K65" s="27"/>
-    </row>
-    <row r="66" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J65" s="13"/>
+      <c r="K65" s="26"/>
+    </row>
+    <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="9"/>
       <c r="B66" s="10"/>
       <c r="C66" s="16"/>
@@ -1558,10 +1556,10 @@
       <c r="G66" s="18"/>
       <c r="H66" s="14"/>
       <c r="I66" s="13"/>
-      <c r="J66" s="26"/>
-      <c r="K66" s="27"/>
-    </row>
-    <row r="67" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J66" s="13"/>
+      <c r="K66" s="26"/>
+    </row>
+    <row r="67" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="9"/>
       <c r="B67" s="10"/>
       <c r="C67" s="16"/>
@@ -1571,10 +1569,10 @@
       <c r="G67" s="18"/>
       <c r="H67" s="14"/>
       <c r="I67" s="13"/>
-      <c r="J67" s="26"/>
-      <c r="K67" s="27"/>
-    </row>
-    <row r="68" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J67" s="13"/>
+      <c r="K67" s="26"/>
+    </row>
+    <row r="68" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="9"/>
       <c r="B68" s="10"/>
       <c r="C68" s="16"/>
@@ -1584,10 +1582,10 @@
       <c r="G68" s="18"/>
       <c r="H68" s="14"/>
       <c r="I68" s="13"/>
-      <c r="J68" s="26"/>
-      <c r="K68" s="27"/>
-    </row>
-    <row r="69" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J68" s="13"/>
+      <c r="K68" s="26"/>
+    </row>
+    <row r="69" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="9"/>
       <c r="B69" s="10"/>
       <c r="C69" s="16"/>
@@ -1597,10 +1595,10 @@
       <c r="G69" s="18"/>
       <c r="H69" s="14"/>
       <c r="I69" s="13"/>
-      <c r="J69" s="26"/>
-      <c r="K69" s="27"/>
-    </row>
-    <row r="70" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J69" s="13"/>
+      <c r="K69" s="26"/>
+    </row>
+    <row r="70" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="9"/>
       <c r="B70" s="10"/>
       <c r="C70" s="16"/>
@@ -1610,10 +1608,10 @@
       <c r="G70" s="18"/>
       <c r="H70" s="14"/>
       <c r="I70" s="13"/>
-      <c r="J70" s="26"/>
-      <c r="K70" s="27"/>
-    </row>
-    <row r="71" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J70" s="13"/>
+      <c r="K70" s="26"/>
+    </row>
+    <row r="71" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="9"/>
       <c r="B71" s="10"/>
       <c r="C71" s="16"/>
@@ -1623,10 +1621,10 @@
       <c r="G71" s="18"/>
       <c r="H71" s="14"/>
       <c r="I71" s="13"/>
-      <c r="J71" s="26"/>
-      <c r="K71" s="27"/>
-    </row>
-    <row r="72" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J71" s="13"/>
+      <c r="K71" s="26"/>
+    </row>
+    <row r="72" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="9"/>
       <c r="B72" s="10"/>
       <c r="C72" s="16"/>
@@ -1636,10 +1634,10 @@
       <c r="G72" s="18"/>
       <c r="H72" s="14"/>
       <c r="I72" s="13"/>
-      <c r="J72" s="26"/>
-      <c r="K72" s="27"/>
-    </row>
-    <row r="73" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J72" s="13"/>
+      <c r="K72" s="26"/>
+    </row>
+    <row r="73" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="9"/>
       <c r="B73" s="10"/>
       <c r="C73" s="16"/>
@@ -1649,10 +1647,10 @@
       <c r="G73" s="18"/>
       <c r="H73" s="14"/>
       <c r="I73" s="13"/>
-      <c r="J73" s="26"/>
-      <c r="K73" s="27"/>
-    </row>
-    <row r="74" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J73" s="13"/>
+      <c r="K73" s="26"/>
+    </row>
+    <row r="74" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="9"/>
       <c r="B74" s="10"/>
       <c r="C74" s="16"/>
@@ -1662,10 +1660,10 @@
       <c r="G74" s="18"/>
       <c r="H74" s="14"/>
       <c r="I74" s="13"/>
-      <c r="J74" s="26"/>
-      <c r="K74" s="27"/>
-    </row>
-    <row r="75" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J74" s="13"/>
+      <c r="K74" s="26"/>
+    </row>
+    <row r="75" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="9"/>
       <c r="B75" s="10"/>
       <c r="C75" s="16"/>
@@ -1675,10 +1673,10 @@
       <c r="G75" s="18"/>
       <c r="H75" s="14"/>
       <c r="I75" s="13"/>
-      <c r="J75" s="26"/>
-      <c r="K75" s="27"/>
-    </row>
-    <row r="76" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J75" s="13"/>
+      <c r="K75" s="26"/>
+    </row>
+    <row r="76" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="9"/>
       <c r="B76" s="10"/>
       <c r="C76" s="16"/>
@@ -1688,10 +1686,10 @@
       <c r="G76" s="18"/>
       <c r="H76" s="14"/>
       <c r="I76" s="13"/>
-      <c r="J76" s="26"/>
-      <c r="K76" s="27"/>
-    </row>
-    <row r="77" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J76" s="13"/>
+      <c r="K76" s="26"/>
+    </row>
+    <row r="77" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="9"/>
       <c r="B77" s="10"/>
       <c r="C77" s="16"/>
@@ -1701,10 +1699,10 @@
       <c r="G77" s="18"/>
       <c r="H77" s="14"/>
       <c r="I77" s="13"/>
-      <c r="J77" s="26"/>
-      <c r="K77" s="27"/>
-    </row>
-    <row r="78" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J77" s="13"/>
+      <c r="K77" s="26"/>
+    </row>
+    <row r="78" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="9"/>
       <c r="B78" s="10"/>
       <c r="C78" s="16"/>
@@ -1714,10 +1712,10 @@
       <c r="G78" s="18"/>
       <c r="H78" s="14"/>
       <c r="I78" s="13"/>
-      <c r="J78" s="26"/>
-      <c r="K78" s="27"/>
-    </row>
-    <row r="79" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J78" s="13"/>
+      <c r="K78" s="26"/>
+    </row>
+    <row r="79" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="9"/>
       <c r="B79" s="10"/>
       <c r="C79" s="16"/>
@@ -1727,10 +1725,10 @@
       <c r="G79" s="18"/>
       <c r="H79" s="14"/>
       <c r="I79" s="13"/>
-      <c r="J79" s="26"/>
-      <c r="K79" s="27"/>
-    </row>
-    <row r="80" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J79" s="13"/>
+      <c r="K79" s="26"/>
+    </row>
+    <row r="80" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="9"/>
       <c r="B80" s="10"/>
       <c r="C80" s="16"/>
@@ -1740,10 +1738,10 @@
       <c r="G80" s="18"/>
       <c r="H80" s="14"/>
       <c r="I80" s="13"/>
-      <c r="J80" s="26"/>
-      <c r="K80" s="27"/>
-    </row>
-    <row r="81" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J80" s="13"/>
+      <c r="K80" s="26"/>
+    </row>
+    <row r="81" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="9"/>
       <c r="B81" s="10"/>
       <c r="C81" s="16"/>
@@ -1753,10 +1751,10 @@
       <c r="G81" s="18"/>
       <c r="H81" s="14"/>
       <c r="I81" s="13"/>
-      <c r="J81" s="26"/>
-      <c r="K81" s="27"/>
-    </row>
-    <row r="82" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J81" s="13"/>
+      <c r="K81" s="26"/>
+    </row>
+    <row r="82" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="9"/>
       <c r="B82" s="10"/>
       <c r="C82" s="16"/>
@@ -1766,10 +1764,10 @@
       <c r="G82" s="18"/>
       <c r="H82" s="14"/>
       <c r="I82" s="13"/>
-      <c r="J82" s="26"/>
-      <c r="K82" s="27"/>
-    </row>
-    <row r="83" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J82" s="13"/>
+      <c r="K82" s="26"/>
+    </row>
+    <row r="83" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="9"/>
       <c r="B83" s="10"/>
       <c r="C83" s="16"/>
@@ -1779,10 +1777,10 @@
       <c r="G83" s="18"/>
       <c r="H83" s="14"/>
       <c r="I83" s="13"/>
-      <c r="J83" s="26"/>
-      <c r="K83" s="27"/>
-    </row>
-    <row r="84" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J83" s="13"/>
+      <c r="K83" s="26"/>
+    </row>
+    <row r="84" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="9"/>
       <c r="B84" s="10"/>
       <c r="C84" s="16"/>
@@ -1792,10 +1790,10 @@
       <c r="G84" s="18"/>
       <c r="H84" s="14"/>
       <c r="I84" s="13"/>
-      <c r="J84" s="26"/>
-      <c r="K84" s="27"/>
-    </row>
-    <row r="85" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J84" s="13"/>
+      <c r="K84" s="26"/>
+    </row>
+    <row r="85" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="9"/>
       <c r="B85" s="10"/>
       <c r="C85" s="16"/>
@@ -1805,10 +1803,10 @@
       <c r="G85" s="18"/>
       <c r="H85" s="14"/>
       <c r="I85" s="13"/>
-      <c r="J85" s="26"/>
-      <c r="K85" s="27"/>
-    </row>
-    <row r="86" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J85" s="13"/>
+      <c r="K85" s="26"/>
+    </row>
+    <row r="86" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="9"/>
       <c r="B86" s="10"/>
       <c r="C86" s="16"/>
@@ -1818,10 +1816,10 @@
       <c r="G86" s="18"/>
       <c r="H86" s="14"/>
       <c r="I86" s="13"/>
-      <c r="J86" s="26"/>
-      <c r="K86" s="27"/>
-    </row>
-    <row r="87" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J86" s="13"/>
+      <c r="K86" s="26"/>
+    </row>
+    <row r="87" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="9"/>
       <c r="B87" s="10"/>
       <c r="C87" s="16"/>
@@ -1831,10 +1829,10 @@
       <c r="G87" s="18"/>
       <c r="H87" s="14"/>
       <c r="I87" s="13"/>
-      <c r="J87" s="26"/>
-      <c r="K87" s="27"/>
-    </row>
-    <row r="88" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J87" s="13"/>
+      <c r="K87" s="26"/>
+    </row>
+    <row r="88" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="9"/>
       <c r="B88" s="10"/>
       <c r="C88" s="16"/>
@@ -1844,10 +1842,10 @@
       <c r="G88" s="18"/>
       <c r="H88" s="14"/>
       <c r="I88" s="13"/>
-      <c r="J88" s="26"/>
-      <c r="K88" s="27"/>
-    </row>
-    <row r="89" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J88" s="13"/>
+      <c r="K88" s="26"/>
+    </row>
+    <row r="89" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="9"/>
       <c r="B89" s="10"/>
       <c r="C89" s="16"/>
@@ -1857,10 +1855,10 @@
       <c r="G89" s="18"/>
       <c r="H89" s="14"/>
       <c r="I89" s="13"/>
-      <c r="J89" s="26"/>
-      <c r="K89" s="27"/>
-    </row>
-    <row r="90" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J89" s="13"/>
+      <c r="K89" s="26"/>
+    </row>
+    <row r="90" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="9"/>
       <c r="B90" s="10"/>
       <c r="C90" s="16"/>
@@ -1870,10 +1868,10 @@
       <c r="G90" s="18"/>
       <c r="H90" s="14"/>
       <c r="I90" s="13"/>
-      <c r="J90" s="26"/>
-      <c r="K90" s="27"/>
-    </row>
-    <row r="91" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J90" s="13"/>
+      <c r="K90" s="26"/>
+    </row>
+    <row r="91" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="9"/>
       <c r="B91" s="10"/>
       <c r="C91" s="16"/>
@@ -1883,10 +1881,10 @@
       <c r="G91" s="18"/>
       <c r="H91" s="14"/>
       <c r="I91" s="13"/>
-      <c r="J91" s="26"/>
-      <c r="K91" s="27"/>
-    </row>
-    <row r="92" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J91" s="13"/>
+      <c r="K91" s="26"/>
+    </row>
+    <row r="92" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="9"/>
       <c r="B92" s="10"/>
       <c r="C92" s="16"/>
@@ -1896,10 +1894,10 @@
       <c r="G92" s="18"/>
       <c r="H92" s="14"/>
       <c r="I92" s="13"/>
-      <c r="J92" s="26"/>
-      <c r="K92" s="27"/>
-    </row>
-    <row r="93" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J92" s="13"/>
+      <c r="K92" s="26"/>
+    </row>
+    <row r="93" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="9"/>
       <c r="B93" s="10"/>
       <c r="C93" s="16"/>
@@ -1909,10 +1907,10 @@
       <c r="G93" s="18"/>
       <c r="H93" s="14"/>
       <c r="I93" s="13"/>
-      <c r="J93" s="26"/>
-      <c r="K93" s="27"/>
-    </row>
-    <row r="94" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J93" s="13"/>
+      <c r="K93" s="26"/>
+    </row>
+    <row r="94" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="9"/>
       <c r="B94" s="10"/>
       <c r="C94" s="16"/>
@@ -1922,10 +1920,10 @@
       <c r="G94" s="18"/>
       <c r="H94" s="14"/>
       <c r="I94" s="13"/>
-      <c r="J94" s="26"/>
-      <c r="K94" s="27"/>
-    </row>
-    <row r="95" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J94" s="13"/>
+      <c r="K94" s="26"/>
+    </row>
+    <row r="95" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="9"/>
       <c r="B95" s="10"/>
       <c r="C95" s="16"/>
@@ -1935,10 +1933,10 @@
       <c r="G95" s="18"/>
       <c r="H95" s="14"/>
       <c r="I95" s="13"/>
-      <c r="J95" s="26"/>
-      <c r="K95" s="27"/>
-    </row>
-    <row r="96" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J95" s="13"/>
+      <c r="K95" s="26"/>
+    </row>
+    <row r="96" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="9"/>
       <c r="B96" s="10"/>
       <c r="C96" s="16"/>
@@ -1948,10 +1946,10 @@
       <c r="G96" s="18"/>
       <c r="H96" s="14"/>
       <c r="I96" s="13"/>
-      <c r="J96" s="26"/>
-      <c r="K96" s="27"/>
-    </row>
-    <row r="97" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J96" s="13"/>
+      <c r="K96" s="26"/>
+    </row>
+    <row r="97" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="9"/>
       <c r="B97" s="10"/>
       <c r="C97" s="16"/>
@@ -1961,10 +1959,10 @@
       <c r="G97" s="18"/>
       <c r="H97" s="14"/>
       <c r="I97" s="13"/>
-      <c r="J97" s="26"/>
-      <c r="K97" s="27"/>
-    </row>
-    <row r="98" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J97" s="13"/>
+      <c r="K97" s="26"/>
+    </row>
+    <row r="98" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="9"/>
       <c r="B98" s="10"/>
       <c r="C98" s="16"/>
@@ -1974,10 +1972,10 @@
       <c r="G98" s="18"/>
       <c r="H98" s="14"/>
       <c r="I98" s="13"/>
-      <c r="J98" s="26"/>
-      <c r="K98" s="27"/>
-    </row>
-    <row r="99" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J98" s="13"/>
+      <c r="K98" s="26"/>
+    </row>
+    <row r="99" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="9"/>
       <c r="B99" s="10"/>
       <c r="C99" s="16"/>
@@ -1987,10 +1985,10 @@
       <c r="G99" s="18"/>
       <c r="H99" s="14"/>
       <c r="I99" s="13"/>
-      <c r="J99" s="26"/>
-      <c r="K99" s="27"/>
-    </row>
-    <row r="100" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J99" s="13"/>
+      <c r="K99" s="26"/>
+    </row>
+    <row r="100" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="9"/>
       <c r="B100" s="10"/>
       <c r="C100" s="16"/>
@@ -2000,10 +1998,10 @@
       <c r="G100" s="18"/>
       <c r="H100" s="14"/>
       <c r="I100" s="13"/>
-      <c r="J100" s="26"/>
-      <c r="K100" s="27"/>
-    </row>
-    <row r="101" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J100" s="13"/>
+      <c r="K100" s="26"/>
+    </row>
+    <row r="101" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="9"/>
       <c r="B101" s="10"/>
       <c r="C101" s="16"/>
@@ -2013,10 +2011,10 @@
       <c r="G101" s="18"/>
       <c r="H101" s="14"/>
       <c r="I101" s="13"/>
-      <c r="J101" s="26"/>
-      <c r="K101" s="27"/>
-    </row>
-    <row r="102" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J101" s="13"/>
+      <c r="K101" s="26"/>
+    </row>
+    <row r="102" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="9"/>
       <c r="B102" s="10"/>
       <c r="C102" s="16"/>
@@ -2026,10 +2024,10 @@
       <c r="G102" s="18"/>
       <c r="H102" s="14"/>
       <c r="I102" s="13"/>
-      <c r="J102" s="26"/>
-      <c r="K102" s="27"/>
-    </row>
-    <row r="103" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J102" s="13"/>
+      <c r="K102" s="26"/>
+    </row>
+    <row r="103" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="9"/>
       <c r="B103" s="10"/>
       <c r="C103" s="16"/>
@@ -2039,10 +2037,10 @@
       <c r="G103" s="18"/>
       <c r="H103" s="14"/>
       <c r="I103" s="13"/>
-      <c r="J103" s="26"/>
-      <c r="K103" s="27"/>
-    </row>
-    <row r="104" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J103" s="13"/>
+      <c r="K103" s="26"/>
+    </row>
+    <row r="104" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="9"/>
       <c r="B104" s="10"/>
       <c r="C104" s="16"/>
@@ -2052,10 +2050,10 @@
       <c r="G104" s="18"/>
       <c r="H104" s="14"/>
       <c r="I104" s="13"/>
-      <c r="J104" s="26"/>
-      <c r="K104" s="27"/>
-    </row>
-    <row r="105" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J104" s="13"/>
+      <c r="K104" s="26"/>
+    </row>
+    <row r="105" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="9"/>
       <c r="B105" s="10"/>
       <c r="C105" s="16"/>
@@ -2065,10 +2063,10 @@
       <c r="G105" s="18"/>
       <c r="H105" s="14"/>
       <c r="I105" s="13"/>
-      <c r="J105" s="26"/>
-      <c r="K105" s="27"/>
-    </row>
-    <row r="106" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J105" s="13"/>
+      <c r="K105" s="26"/>
+    </row>
+    <row r="106" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="9"/>
       <c r="B106" s="10"/>
       <c r="C106" s="16"/>
@@ -2078,10 +2076,10 @@
       <c r="G106" s="18"/>
       <c r="H106" s="14"/>
       <c r="I106" s="13"/>
-      <c r="J106" s="26"/>
-      <c r="K106" s="27"/>
-    </row>
-    <row r="107" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J106" s="13"/>
+      <c r="K106" s="26"/>
+    </row>
+    <row r="107" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="9"/>
       <c r="B107" s="10"/>
       <c r="C107" s="16"/>
@@ -2091,10 +2089,10 @@
       <c r="G107" s="18"/>
       <c r="H107" s="14"/>
       <c r="I107" s="13"/>
-      <c r="J107" s="26"/>
-      <c r="K107" s="27"/>
-    </row>
-    <row r="108" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J107" s="13"/>
+      <c r="K107" s="26"/>
+    </row>
+    <row r="108" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="9"/>
       <c r="B108" s="10"/>
       <c r="C108" s="16"/>
@@ -2104,10 +2102,10 @@
       <c r="G108" s="18"/>
       <c r="H108" s="14"/>
       <c r="I108" s="13"/>
-      <c r="J108" s="26"/>
-      <c r="K108" s="27"/>
-    </row>
-    <row r="109" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J108" s="13"/>
+      <c r="K108" s="26"/>
+    </row>
+    <row r="109" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="9"/>
       <c r="B109" s="10"/>
       <c r="C109" s="16"/>
@@ -2117,10 +2115,10 @@
       <c r="G109" s="18"/>
       <c r="H109" s="14"/>
       <c r="I109" s="13"/>
-      <c r="J109" s="26"/>
-      <c r="K109" s="27"/>
-    </row>
-    <row r="110" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J109" s="13"/>
+      <c r="K109" s="26"/>
+    </row>
+    <row r="110" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="9"/>
       <c r="B110" s="10"/>
       <c r="C110" s="16"/>
@@ -2130,10 +2128,10 @@
       <c r="G110" s="18"/>
       <c r="H110" s="14"/>
       <c r="I110" s="13"/>
-      <c r="J110" s="26"/>
-      <c r="K110" s="27"/>
-    </row>
-    <row r="111" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J110" s="13"/>
+      <c r="K110" s="26"/>
+    </row>
+    <row r="111" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="9"/>
       <c r="B111" s="10"/>
       <c r="C111" s="16"/>
@@ -2143,10 +2141,10 @@
       <c r="G111" s="18"/>
       <c r="H111" s="14"/>
       <c r="I111" s="13"/>
-      <c r="J111" s="26"/>
-      <c r="K111" s="27"/>
-    </row>
-    <row r="112" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J111" s="13"/>
+      <c r="K111" s="26"/>
+    </row>
+    <row r="112" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="9"/>
       <c r="B112" s="10"/>
       <c r="C112" s="16"/>
@@ -2156,10 +2154,10 @@
       <c r="G112" s="18"/>
       <c r="H112" s="14"/>
       <c r="I112" s="13"/>
-      <c r="J112" s="26"/>
-      <c r="K112" s="27"/>
-    </row>
-    <row r="113" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J112" s="13"/>
+      <c r="K112" s="26"/>
+    </row>
+    <row r="113" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="9"/>
       <c r="B113" s="10"/>
       <c r="C113" s="16"/>
@@ -2169,10 +2167,10 @@
       <c r="G113" s="18"/>
       <c r="H113" s="14"/>
       <c r="I113" s="13"/>
-      <c r="J113" s="26"/>
-      <c r="K113" s="27"/>
-    </row>
-    <row r="114" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J113" s="13"/>
+      <c r="K113" s="26"/>
+    </row>
+    <row r="114" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="9"/>
       <c r="B114" s="10"/>
       <c r="C114" s="16"/>
@@ -2182,10 +2180,10 @@
       <c r="G114" s="18"/>
       <c r="H114" s="14"/>
       <c r="I114" s="13"/>
-      <c r="J114" s="26"/>
-      <c r="K114" s="27"/>
-    </row>
-    <row r="115" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J114" s="13"/>
+      <c r="K114" s="26"/>
+    </row>
+    <row r="115" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="9"/>
       <c r="B115" s="10"/>
       <c r="C115" s="16"/>
@@ -2195,10 +2193,10 @@
       <c r="G115" s="18"/>
       <c r="H115" s="14"/>
       <c r="I115" s="13"/>
-      <c r="J115" s="26"/>
-      <c r="K115" s="27"/>
-    </row>
-    <row r="116" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J115" s="13"/>
+      <c r="K115" s="26"/>
+    </row>
+    <row r="116" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="9"/>
       <c r="B116" s="10"/>
       <c r="C116" s="16"/>
@@ -2208,10 +2206,10 @@
       <c r="G116" s="18"/>
       <c r="H116" s="14"/>
       <c r="I116" s="13"/>
-      <c r="J116" s="26"/>
-      <c r="K116" s="27"/>
-    </row>
-    <row r="117" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J116" s="13"/>
+      <c r="K116" s="26"/>
+    </row>
+    <row r="117" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="9"/>
       <c r="B117" s="10"/>
       <c r="C117" s="16"/>
@@ -2221,10 +2219,10 @@
       <c r="G117" s="18"/>
       <c r="H117" s="14"/>
       <c r="I117" s="13"/>
-      <c r="J117" s="26"/>
-      <c r="K117" s="27"/>
-    </row>
-    <row r="118" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J117" s="13"/>
+      <c r="K117" s="26"/>
+    </row>
+    <row r="118" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="9"/>
       <c r="B118" s="10"/>
       <c r="C118" s="16"/>
@@ -2234,10 +2232,10 @@
       <c r="G118" s="18"/>
       <c r="H118" s="14"/>
       <c r="I118" s="13"/>
-      <c r="J118" s="26"/>
-      <c r="K118" s="27"/>
-    </row>
-    <row r="119" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J118" s="13"/>
+      <c r="K118" s="26"/>
+    </row>
+    <row r="119" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="9"/>
       <c r="B119" s="10"/>
       <c r="C119" s="16"/>
@@ -2247,10 +2245,10 @@
       <c r="G119" s="18"/>
       <c r="H119" s="14"/>
       <c r="I119" s="13"/>
-      <c r="J119" s="26"/>
-      <c r="K119" s="27"/>
-    </row>
-    <row r="120" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J119" s="13"/>
+      <c r="K119" s="26"/>
+    </row>
+    <row r="120" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="9"/>
       <c r="B120" s="10"/>
       <c r="C120" s="16"/>
@@ -2260,10 +2258,10 @@
       <c r="G120" s="18"/>
       <c r="H120" s="14"/>
       <c r="I120" s="13"/>
-      <c r="J120" s="26"/>
-      <c r="K120" s="27"/>
-    </row>
-    <row r="121" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J120" s="13"/>
+      <c r="K120" s="26"/>
+    </row>
+    <row r="121" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="9"/>
       <c r="B121" s="10"/>
       <c r="C121" s="16"/>
@@ -2273,10 +2271,10 @@
       <c r="G121" s="18"/>
       <c r="H121" s="14"/>
       <c r="I121" s="13"/>
-      <c r="J121" s="26"/>
-      <c r="K121" s="27"/>
-    </row>
-    <row r="122" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J121" s="13"/>
+      <c r="K121" s="26"/>
+    </row>
+    <row r="122" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="9"/>
       <c r="B122" s="10"/>
       <c r="C122" s="16"/>
@@ -2286,10 +2284,10 @@
       <c r="G122" s="18"/>
       <c r="H122" s="14"/>
       <c r="I122" s="13"/>
-      <c r="J122" s="26"/>
-      <c r="K122" s="27"/>
-    </row>
-    <row r="123" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J122" s="13"/>
+      <c r="K122" s="26"/>
+    </row>
+    <row r="123" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="9"/>
       <c r="B123" s="10"/>
       <c r="C123" s="16"/>
@@ -2299,10 +2297,10 @@
       <c r="G123" s="18"/>
       <c r="H123" s="14"/>
       <c r="I123" s="13"/>
-      <c r="J123" s="26"/>
-      <c r="K123" s="27"/>
-    </row>
-    <row r="124" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J123" s="13"/>
+      <c r="K123" s="26"/>
+    </row>
+    <row r="124" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="9"/>
       <c r="B124" s="10"/>
       <c r="C124" s="16"/>
@@ -2312,10 +2310,10 @@
       <c r="G124" s="18"/>
       <c r="H124" s="14"/>
       <c r="I124" s="13"/>
-      <c r="J124" s="26"/>
-      <c r="K124" s="27"/>
-    </row>
-    <row r="125" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J124" s="13"/>
+      <c r="K124" s="26"/>
+    </row>
+    <row r="125" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="9"/>
       <c r="B125" s="10"/>
       <c r="C125" s="16"/>
@@ -2325,10 +2323,10 @@
       <c r="G125" s="18"/>
       <c r="H125" s="14"/>
       <c r="I125" s="13"/>
-      <c r="J125" s="26"/>
-      <c r="K125" s="27"/>
-    </row>
-    <row r="126" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J125" s="13"/>
+      <c r="K125" s="26"/>
+    </row>
+    <row r="126" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="9"/>
       <c r="B126" s="10"/>
       <c r="C126" s="16"/>
@@ -2338,10 +2336,10 @@
       <c r="G126" s="18"/>
       <c r="H126" s="14"/>
       <c r="I126" s="13"/>
-      <c r="J126" s="26"/>
-      <c r="K126" s="27"/>
-    </row>
-    <row r="127" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J126" s="13"/>
+      <c r="K126" s="26"/>
+    </row>
+    <row r="127" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="9"/>
       <c r="B127" s="10"/>
       <c r="C127" s="16"/>
@@ -2351,10 +2349,10 @@
       <c r="G127" s="18"/>
       <c r="H127" s="14"/>
       <c r="I127" s="13"/>
-      <c r="J127" s="26"/>
-      <c r="K127" s="27"/>
-    </row>
-    <row r="128" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J127" s="13"/>
+      <c r="K127" s="26"/>
+    </row>
+    <row r="128" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="9"/>
       <c r="B128" s="10"/>
       <c r="C128" s="16"/>
@@ -2364,10 +2362,10 @@
       <c r="G128" s="18"/>
       <c r="H128" s="14"/>
       <c r="I128" s="13"/>
-      <c r="J128" s="26"/>
-      <c r="K128" s="27"/>
-    </row>
-    <row r="129" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J128" s="13"/>
+      <c r="K128" s="26"/>
+    </row>
+    <row r="129" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="9"/>
       <c r="B129" s="10"/>
       <c r="C129" s="16"/>
@@ -2377,10 +2375,10 @@
       <c r="G129" s="18"/>
       <c r="H129" s="14"/>
       <c r="I129" s="13"/>
-      <c r="J129" s="26"/>
-      <c r="K129" s="27"/>
-    </row>
-    <row r="130" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J129" s="13"/>
+      <c r="K129" s="26"/>
+    </row>
+    <row r="130" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="9"/>
       <c r="B130" s="10"/>
       <c r="C130" s="16"/>
@@ -2390,10 +2388,10 @@
       <c r="G130" s="18"/>
       <c r="H130" s="14"/>
       <c r="I130" s="13"/>
-      <c r="J130" s="26"/>
-      <c r="K130" s="27"/>
-    </row>
-    <row r="131" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J130" s="13"/>
+      <c r="K130" s="26"/>
+    </row>
+    <row r="131" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="9"/>
       <c r="B131" s="10"/>
       <c r="C131" s="16"/>
@@ -2403,10 +2401,10 @@
       <c r="G131" s="18"/>
       <c r="H131" s="14"/>
       <c r="I131" s="13"/>
-      <c r="J131" s="26"/>
-      <c r="K131" s="27"/>
-    </row>
-    <row r="132" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J131" s="13"/>
+      <c r="K131" s="26"/>
+    </row>
+    <row r="132" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="9"/>
       <c r="B132" s="10"/>
       <c r="C132" s="16"/>
@@ -2416,10 +2414,10 @@
       <c r="G132" s="18"/>
       <c r="H132" s="14"/>
       <c r="I132" s="13"/>
-      <c r="J132" s="26"/>
-      <c r="K132" s="27"/>
-    </row>
-    <row r="133" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J132" s="13"/>
+      <c r="K132" s="26"/>
+    </row>
+    <row r="133" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="9"/>
       <c r="B133" s="10"/>
       <c r="C133" s="16"/>
@@ -2429,10 +2427,10 @@
       <c r="G133" s="18"/>
       <c r="H133" s="14"/>
       <c r="I133" s="13"/>
-      <c r="J133" s="26"/>
-      <c r="K133" s="27"/>
-    </row>
-    <row r="134" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J133" s="13"/>
+      <c r="K133" s="26"/>
+    </row>
+    <row r="134" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="9"/>
       <c r="B134" s="10"/>
       <c r="C134" s="16"/>
@@ -2442,10 +2440,10 @@
       <c r="G134" s="18"/>
       <c r="H134" s="14"/>
       <c r="I134" s="13"/>
-      <c r="J134" s="26"/>
-      <c r="K134" s="27"/>
-    </row>
-    <row r="135" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J134" s="13"/>
+      <c r="K134" s="26"/>
+    </row>
+    <row r="135" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="9"/>
       <c r="B135" s="10"/>
       <c r="C135" s="16"/>
@@ -2455,10 +2453,10 @@
       <c r="G135" s="18"/>
       <c r="H135" s="14"/>
       <c r="I135" s="13"/>
-      <c r="J135" s="26"/>
-      <c r="K135" s="27"/>
-    </row>
-    <row r="136" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J135" s="13"/>
+      <c r="K135" s="26"/>
+    </row>
+    <row r="136" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="9"/>
       <c r="B136" s="10"/>
       <c r="C136" s="16"/>
@@ -2468,10 +2466,10 @@
       <c r="G136" s="18"/>
       <c r="H136" s="14"/>
       <c r="I136" s="13"/>
-      <c r="J136" s="26"/>
-      <c r="K136" s="27"/>
-    </row>
-    <row r="137" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J136" s="13"/>
+      <c r="K136" s="26"/>
+    </row>
+    <row r="137" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="9"/>
       <c r="B137" s="10"/>
       <c r="C137" s="16"/>
@@ -2481,10 +2479,10 @@
       <c r="G137" s="18"/>
       <c r="H137" s="14"/>
       <c r="I137" s="13"/>
-      <c r="J137" s="26"/>
-      <c r="K137" s="27"/>
-    </row>
-    <row r="138" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J137" s="13"/>
+      <c r="K137" s="26"/>
+    </row>
+    <row r="138" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="9"/>
       <c r="B138" s="10"/>
       <c r="C138" s="16"/>
@@ -2494,10 +2492,10 @@
       <c r="G138" s="18"/>
       <c r="H138" s="14"/>
       <c r="I138" s="13"/>
-      <c r="J138" s="26"/>
-      <c r="K138" s="27"/>
-    </row>
-    <row r="139" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J138" s="13"/>
+      <c r="K138" s="26"/>
+    </row>
+    <row r="139" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="9"/>
       <c r="B139" s="10"/>
       <c r="C139" s="16"/>
@@ -2507,10 +2505,10 @@
       <c r="G139" s="18"/>
       <c r="H139" s="14"/>
       <c r="I139" s="13"/>
-      <c r="J139" s="26"/>
-      <c r="K139" s="27"/>
-    </row>
-    <row r="140" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J139" s="13"/>
+      <c r="K139" s="26"/>
+    </row>
+    <row r="140" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="9"/>
       <c r="B140" s="10"/>
       <c r="C140" s="16"/>
@@ -2520,10 +2518,10 @@
       <c r="G140" s="18"/>
       <c r="H140" s="14"/>
       <c r="I140" s="13"/>
-      <c r="J140" s="26"/>
-      <c r="K140" s="27"/>
-    </row>
-    <row r="141" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J140" s="13"/>
+      <c r="K140" s="26"/>
+    </row>
+    <row r="141" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="9"/>
       <c r="B141" s="10"/>
       <c r="C141" s="16"/>
@@ -2533,10 +2531,10 @@
       <c r="G141" s="18"/>
       <c r="H141" s="14"/>
       <c r="I141" s="13"/>
-      <c r="J141" s="26"/>
-      <c r="K141" s="27"/>
-    </row>
-    <row r="142" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J141" s="13"/>
+      <c r="K141" s="26"/>
+    </row>
+    <row r="142" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="9"/>
       <c r="B142" s="10"/>
       <c r="C142" s="16"/>
@@ -2546,10 +2544,10 @@
       <c r="G142" s="18"/>
       <c r="H142" s="14"/>
       <c r="I142" s="13"/>
-      <c r="J142" s="26"/>
-      <c r="K142" s="27"/>
-    </row>
-    <row r="143" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J142" s="13"/>
+      <c r="K142" s="26"/>
+    </row>
+    <row r="143" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="9"/>
       <c r="B143" s="10"/>
       <c r="C143" s="16"/>
@@ -2559,10 +2557,10 @@
       <c r="G143" s="18"/>
       <c r="H143" s="14"/>
       <c r="I143" s="13"/>
-      <c r="J143" s="26"/>
-      <c r="K143" s="27"/>
-    </row>
-    <row r="144" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J143" s="13"/>
+      <c r="K143" s="26"/>
+    </row>
+    <row r="144" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="9"/>
       <c r="B144" s="10"/>
       <c r="C144" s="16"/>
@@ -2572,10 +2570,10 @@
       <c r="G144" s="18"/>
       <c r="H144" s="14"/>
       <c r="I144" s="13"/>
-      <c r="J144" s="26"/>
-      <c r="K144" s="27"/>
-    </row>
-    <row r="145" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J144" s="13"/>
+      <c r="K144" s="26"/>
+    </row>
+    <row r="145" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="9"/>
       <c r="B145" s="19"/>
       <c r="C145" s="20"/>
@@ -2585,10 +2583,10 @@
       <c r="G145" s="23"/>
       <c r="H145" s="24"/>
       <c r="I145" s="13"/>
-      <c r="J145" s="26"/>
-      <c r="K145" s="27"/>
-    </row>
-    <row r="146" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J145" s="13"/>
+      <c r="K145" s="26"/>
+    </row>
+    <row r="146" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="9"/>
       <c r="B146" s="10"/>
       <c r="C146" s="16"/>
@@ -2598,10 +2596,10 @@
       <c r="G146" s="18"/>
       <c r="H146" s="14"/>
       <c r="I146" s="13"/>
-      <c r="J146" s="26"/>
-      <c r="K146" s="27"/>
-    </row>
-    <row r="147" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J146" s="13"/>
+      <c r="K146" s="26"/>
+    </row>
+    <row r="147" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="9"/>
       <c r="B147" s="10"/>
       <c r="C147" s="16"/>
@@ -2611,10 +2609,10 @@
       <c r="G147" s="18"/>
       <c r="H147" s="14"/>
       <c r="I147" s="13"/>
-      <c r="J147" s="26"/>
-      <c r="K147" s="27"/>
-    </row>
-    <row r="148" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J147" s="13"/>
+      <c r="K147" s="26"/>
+    </row>
+    <row r="148" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="9"/>
       <c r="B148" s="10"/>
       <c r="C148" s="16"/>
@@ -2624,10 +2622,10 @@
       <c r="G148" s="18"/>
       <c r="H148" s="14"/>
       <c r="I148" s="13"/>
-      <c r="J148" s="26"/>
-      <c r="K148" s="27"/>
-    </row>
-    <row r="149" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J148" s="13"/>
+      <c r="K148" s="26"/>
+    </row>
+    <row r="149" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="9"/>
       <c r="B149" s="10"/>
       <c r="C149" s="16"/>
@@ -2637,10 +2635,10 @@
       <c r="G149" s="18"/>
       <c r="H149" s="14"/>
       <c r="I149" s="13"/>
-      <c r="J149" s="26"/>
-      <c r="K149" s="27"/>
-    </row>
-    <row r="150" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J149" s="13"/>
+      <c r="K149" s="26"/>
+    </row>
+    <row r="150" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="9"/>
       <c r="B150" s="10"/>
       <c r="C150" s="16"/>
@@ -2650,10 +2648,10 @@
       <c r="G150" s="18"/>
       <c r="H150" s="14"/>
       <c r="I150" s="13"/>
-      <c r="J150" s="26"/>
-      <c r="K150" s="27"/>
-    </row>
-    <row r="151" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J150" s="13"/>
+      <c r="K150" s="26"/>
+    </row>
+    <row r="151" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="9"/>
       <c r="B151" s="10"/>
       <c r="C151" s="16"/>
@@ -2663,10 +2661,10 @@
       <c r="G151" s="18"/>
       <c r="H151" s="14"/>
       <c r="I151" s="13"/>
-      <c r="J151" s="26"/>
-      <c r="K151" s="27"/>
-    </row>
-    <row r="152" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J151" s="13"/>
+      <c r="K151" s="26"/>
+    </row>
+    <row r="152" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="9"/>
       <c r="B152" s="10"/>
       <c r="C152" s="16"/>
@@ -2676,10 +2674,10 @@
       <c r="G152" s="18"/>
       <c r="H152" s="14"/>
       <c r="I152" s="13"/>
-      <c r="J152" s="26"/>
-      <c r="K152" s="27"/>
-    </row>
-    <row r="153" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J152" s="13"/>
+      <c r="K152" s="26"/>
+    </row>
+    <row r="153" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="9"/>
       <c r="B153" s="10"/>
       <c r="C153" s="16"/>
@@ -2689,10 +2687,10 @@
       <c r="G153" s="18"/>
       <c r="H153" s="14"/>
       <c r="I153" s="13"/>
-      <c r="J153" s="26"/>
-      <c r="K153" s="27"/>
-    </row>
-    <row r="154" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J153" s="13"/>
+      <c r="K153" s="26"/>
+    </row>
+    <row r="154" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="9"/>
       <c r="B154" s="10"/>
       <c r="C154" s="16"/>
@@ -2702,10 +2700,10 @@
       <c r="G154" s="18"/>
       <c r="H154" s="14"/>
       <c r="I154" s="13"/>
-      <c r="J154" s="26"/>
-      <c r="K154" s="27"/>
-    </row>
-    <row r="155" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J154" s="13"/>
+      <c r="K154" s="26"/>
+    </row>
+    <row r="155" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="9"/>
       <c r="B155" s="10"/>
       <c r="C155" s="16"/>
@@ -2715,10 +2713,10 @@
       <c r="G155" s="18"/>
       <c r="H155" s="14"/>
       <c r="I155" s="13"/>
-      <c r="J155" s="26"/>
-      <c r="K155" s="27"/>
-    </row>
-    <row r="156" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J155" s="13"/>
+      <c r="K155" s="26"/>
+    </row>
+    <row r="156" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="9"/>
       <c r="B156" s="10"/>
       <c r="C156" s="16"/>
@@ -2728,10 +2726,10 @@
       <c r="G156" s="18"/>
       <c r="H156" s="14"/>
       <c r="I156" s="13"/>
-      <c r="J156" s="26"/>
-      <c r="K156" s="27"/>
-    </row>
-    <row r="157" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J156" s="13"/>
+      <c r="K156" s="26"/>
+    </row>
+    <row r="157" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="9"/>
       <c r="B157" s="10"/>
       <c r="C157" s="16"/>
@@ -2741,10 +2739,10 @@
       <c r="G157" s="18"/>
       <c r="H157" s="14"/>
       <c r="I157" s="13"/>
-      <c r="J157" s="26"/>
-      <c r="K157" s="27"/>
-    </row>
-    <row r="158" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J157" s="13"/>
+      <c r="K157" s="26"/>
+    </row>
+    <row r="158" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="9"/>
       <c r="B158" s="10"/>
       <c r="C158" s="16"/>
@@ -2754,10 +2752,10 @@
       <c r="G158" s="18"/>
       <c r="H158" s="14"/>
       <c r="I158" s="13"/>
-      <c r="J158" s="26"/>
-      <c r="K158" s="27"/>
-    </row>
-    <row r="159" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J158" s="13"/>
+      <c r="K158" s="26"/>
+    </row>
+    <row r="159" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="9"/>
       <c r="B159" s="10"/>
       <c r="C159" s="16"/>
@@ -2767,10 +2765,10 @@
       <c r="G159" s="18"/>
       <c r="H159" s="14"/>
       <c r="I159" s="13"/>
-      <c r="J159" s="26"/>
-      <c r="K159" s="27"/>
-    </row>
-    <row r="160" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J159" s="13"/>
+      <c r="K159" s="26"/>
+    </row>
+    <row r="160" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="9"/>
       <c r="B160" s="10"/>
       <c r="C160" s="16"/>
@@ -2780,10 +2778,10 @@
       <c r="G160" s="18"/>
       <c r="H160" s="14"/>
       <c r="I160" s="13"/>
-      <c r="J160" s="26"/>
-      <c r="K160" s="27"/>
-    </row>
-    <row r="161" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J160" s="13"/>
+      <c r="K160" s="26"/>
+    </row>
+    <row r="161" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="9"/>
       <c r="B161" s="10"/>
       <c r="C161" s="16"/>
@@ -2793,10 +2791,10 @@
       <c r="G161" s="18"/>
       <c r="H161" s="14"/>
       <c r="I161" s="13"/>
-      <c r="J161" s="26"/>
-      <c r="K161" s="27"/>
-    </row>
-    <row r="162" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J161" s="13"/>
+      <c r="K161" s="26"/>
+    </row>
+    <row r="162" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="9"/>
       <c r="B162" s="10"/>
       <c r="C162" s="16"/>
@@ -2806,10 +2804,10 @@
       <c r="G162" s="18"/>
       <c r="H162" s="14"/>
       <c r="I162" s="13"/>
-      <c r="J162" s="26"/>
-      <c r="K162" s="27"/>
-    </row>
-    <row r="163" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J162" s="13"/>
+      <c r="K162" s="26"/>
+    </row>
+    <row r="163" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="9"/>
       <c r="B163" s="10"/>
       <c r="C163" s="16"/>
@@ -2819,10 +2817,10 @@
       <c r="G163" s="18"/>
       <c r="H163" s="14"/>
       <c r="I163" s="13"/>
-      <c r="J163" s="26"/>
-      <c r="K163" s="27"/>
-    </row>
-    <row r="164" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J163" s="13"/>
+      <c r="K163" s="26"/>
+    </row>
+    <row r="164" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="9"/>
       <c r="B164" s="10"/>
       <c r="C164" s="16"/>
@@ -2832,10 +2830,10 @@
       <c r="G164" s="18"/>
       <c r="H164" s="14"/>
       <c r="I164" s="13"/>
-      <c r="J164" s="26"/>
-      <c r="K164" s="27"/>
-    </row>
-    <row r="165" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J164" s="13"/>
+      <c r="K164" s="26"/>
+    </row>
+    <row r="165" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="9"/>
       <c r="B165" s="10"/>
       <c r="C165" s="16"/>
@@ -2845,10 +2843,10 @@
       <c r="G165" s="18"/>
       <c r="H165" s="14"/>
       <c r="I165" s="13"/>
-      <c r="J165" s="26"/>
-      <c r="K165" s="27"/>
-    </row>
-    <row r="166" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J165" s="13"/>
+      <c r="K165" s="26"/>
+    </row>
+    <row r="166" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="9"/>
       <c r="B166" s="10"/>
       <c r="C166" s="16"/>
@@ -2858,10 +2856,10 @@
       <c r="G166" s="18"/>
       <c r="H166" s="14"/>
       <c r="I166" s="13"/>
-      <c r="J166" s="26"/>
-      <c r="K166" s="27"/>
-    </row>
-    <row r="167" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J166" s="13"/>
+      <c r="K166" s="26"/>
+    </row>
+    <row r="167" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="9"/>
       <c r="B167" s="10"/>
       <c r="C167" s="16"/>
@@ -2871,10 +2869,10 @@
       <c r="G167" s="18"/>
       <c r="H167" s="14"/>
       <c r="I167" s="13"/>
-      <c r="J167" s="26"/>
-      <c r="K167" s="27"/>
-    </row>
-    <row r="168" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J167" s="13"/>
+      <c r="K167" s="26"/>
+    </row>
+    <row r="168" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="9"/>
       <c r="B168" s="10"/>
       <c r="C168" s="16"/>
@@ -2884,10 +2882,10 @@
       <c r="G168" s="18"/>
       <c r="H168" s="14"/>
       <c r="I168" s="13"/>
-      <c r="J168" s="26"/>
-      <c r="K168" s="27"/>
-    </row>
-    <row r="169" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J168" s="13"/>
+      <c r="K168" s="26"/>
+    </row>
+    <row r="169" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="9"/>
       <c r="B169" s="10"/>
       <c r="C169" s="16"/>
@@ -2897,10 +2895,10 @@
       <c r="G169" s="18"/>
       <c r="H169" s="14"/>
       <c r="I169" s="13"/>
-      <c r="J169" s="26"/>
-      <c r="K169" s="27"/>
-    </row>
-    <row r="170" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J169" s="13"/>
+      <c r="K169" s="26"/>
+    </row>
+    <row r="170" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="9"/>
       <c r="B170" s="10"/>
       <c r="C170" s="16"/>
@@ -2910,10 +2908,10 @@
       <c r="G170" s="18"/>
       <c r="H170" s="14"/>
       <c r="I170" s="13"/>
-      <c r="J170" s="26"/>
-      <c r="K170" s="27"/>
-    </row>
-    <row r="171" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J170" s="13"/>
+      <c r="K170" s="26"/>
+    </row>
+    <row r="171" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="9"/>
       <c r="B171" s="10"/>
       <c r="C171" s="16"/>
@@ -2923,10 +2921,10 @@
       <c r="G171" s="18"/>
       <c r="H171" s="14"/>
       <c r="I171" s="13"/>
-      <c r="J171" s="26"/>
-      <c r="K171" s="27"/>
-    </row>
-    <row r="172" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J171" s="13"/>
+      <c r="K171" s="26"/>
+    </row>
+    <row r="172" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="9"/>
       <c r="B172" s="10"/>
       <c r="C172" s="16"/>
@@ -2936,10 +2934,10 @@
       <c r="G172" s="18"/>
       <c r="H172" s="14"/>
       <c r="I172" s="13"/>
-      <c r="J172" s="26"/>
-      <c r="K172" s="27"/>
-    </row>
-    <row r="173" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J172" s="13"/>
+      <c r="K172" s="26"/>
+    </row>
+    <row r="173" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="9"/>
       <c r="B173" s="10"/>
       <c r="C173" s="16"/>
@@ -2949,10 +2947,10 @@
       <c r="G173" s="18"/>
       <c r="H173" s="14"/>
       <c r="I173" s="13"/>
-      <c r="J173" s="26"/>
-      <c r="K173" s="27"/>
-    </row>
-    <row r="174" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J173" s="13"/>
+      <c r="K173" s="26"/>
+    </row>
+    <row r="174" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="9"/>
       <c r="B174" s="10"/>
       <c r="C174" s="16"/>
@@ -2962,10 +2960,10 @@
       <c r="G174" s="18"/>
       <c r="H174" s="14"/>
       <c r="I174" s="13"/>
-      <c r="J174" s="26"/>
-      <c r="K174" s="27"/>
-    </row>
-    <row r="175" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J174" s="13"/>
+      <c r="K174" s="26"/>
+    </row>
+    <row r="175" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="9"/>
       <c r="B175" s="10"/>
       <c r="C175" s="16"/>
@@ -2975,10 +2973,10 @@
       <c r="G175" s="18"/>
       <c r="H175" s="14"/>
       <c r="I175" s="13"/>
-      <c r="J175" s="26"/>
-      <c r="K175" s="27"/>
-    </row>
-    <row r="176" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J175" s="13"/>
+      <c r="K175" s="26"/>
+    </row>
+    <row r="176" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="9"/>
       <c r="B176" s="10"/>
       <c r="C176" s="16"/>
@@ -2988,10 +2986,10 @@
       <c r="G176" s="18"/>
       <c r="H176" s="14"/>
       <c r="I176" s="13"/>
-      <c r="J176" s="26"/>
-      <c r="K176" s="27"/>
-    </row>
-    <row r="177" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J176" s="13"/>
+      <c r="K176" s="26"/>
+    </row>
+    <row r="177" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="9"/>
       <c r="B177" s="10"/>
       <c r="C177" s="16"/>
@@ -3001,10 +2999,10 @@
       <c r="G177" s="18"/>
       <c r="H177" s="14"/>
       <c r="I177" s="13"/>
-      <c r="J177" s="26"/>
-      <c r="K177" s="27"/>
-    </row>
-    <row r="178" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J177" s="13"/>
+      <c r="K177" s="26"/>
+    </row>
+    <row r="178" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="9"/>
       <c r="B178" s="10"/>
       <c r="C178" s="16"/>
@@ -3014,10 +3012,10 @@
       <c r="G178" s="18"/>
       <c r="H178" s="14"/>
       <c r="I178" s="13"/>
-      <c r="J178" s="26"/>
-      <c r="K178" s="27"/>
-    </row>
-    <row r="179" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J178" s="13"/>
+      <c r="K178" s="26"/>
+    </row>
+    <row r="179" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="9"/>
       <c r="B179" s="10"/>
       <c r="C179" s="16"/>
@@ -3027,10 +3025,10 @@
       <c r="G179" s="18"/>
       <c r="H179" s="14"/>
       <c r="I179" s="13"/>
-      <c r="J179" s="26"/>
-      <c r="K179" s="27"/>
-    </row>
-    <row r="180" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J179" s="13"/>
+      <c r="K179" s="26"/>
+    </row>
+    <row r="180" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="9"/>
       <c r="B180" s="10"/>
       <c r="C180" s="16"/>
@@ -3040,10 +3038,10 @@
       <c r="G180" s="18"/>
       <c r="H180" s="14"/>
       <c r="I180" s="13"/>
-      <c r="J180" s="26"/>
-      <c r="K180" s="27"/>
-    </row>
-    <row r="181" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J180" s="13"/>
+      <c r="K180" s="26"/>
+    </row>
+    <row r="181" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="9"/>
       <c r="B181" s="10"/>
       <c r="C181" s="16"/>
@@ -3053,10 +3051,10 @@
       <c r="G181" s="18"/>
       <c r="H181" s="14"/>
       <c r="I181" s="13"/>
-      <c r="J181" s="26"/>
-      <c r="K181" s="27"/>
-    </row>
-    <row r="182" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J181" s="13"/>
+      <c r="K181" s="26"/>
+    </row>
+    <row r="182" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="9"/>
       <c r="B182" s="10"/>
       <c r="C182" s="16"/>
@@ -3066,10 +3064,10 @@
       <c r="G182" s="18"/>
       <c r="H182" s="14"/>
       <c r="I182" s="13"/>
-      <c r="J182" s="26"/>
-      <c r="K182" s="27"/>
-    </row>
-    <row r="183" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J182" s="13"/>
+      <c r="K182" s="26"/>
+    </row>
+    <row r="183" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="9"/>
       <c r="B183" s="10"/>
       <c r="C183" s="16"/>
@@ -3079,10 +3077,10 @@
       <c r="G183" s="18"/>
       <c r="H183" s="14"/>
       <c r="I183" s="13"/>
-      <c r="J183" s="26"/>
-      <c r="K183" s="27"/>
-    </row>
-    <row r="184" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J183" s="13"/>
+      <c r="K183" s="26"/>
+    </row>
+    <row r="184" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="9"/>
       <c r="B184" s="10"/>
       <c r="C184" s="16"/>
@@ -3092,10 +3090,10 @@
       <c r="G184" s="18"/>
       <c r="H184" s="14"/>
       <c r="I184" s="13"/>
-      <c r="J184" s="26"/>
-      <c r="K184" s="27"/>
-    </row>
-    <row r="185" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J184" s="13"/>
+      <c r="K184" s="26"/>
+    </row>
+    <row r="185" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="9"/>
       <c r="B185" s="10"/>
       <c r="C185" s="16"/>
@@ -3105,10 +3103,10 @@
       <c r="G185" s="18"/>
       <c r="H185" s="14"/>
       <c r="I185" s="13"/>
-      <c r="J185" s="26"/>
-      <c r="K185" s="27"/>
-    </row>
-    <row r="186" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J185" s="13"/>
+      <c r="K185" s="26"/>
+    </row>
+    <row r="186" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="9"/>
       <c r="B186" s="10"/>
       <c r="C186" s="16"/>
@@ -3118,10 +3116,10 @@
       <c r="G186" s="18"/>
       <c r="H186" s="14"/>
       <c r="I186" s="13"/>
-      <c r="J186" s="26"/>
-      <c r="K186" s="27"/>
-    </row>
-    <row r="187" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J186" s="13"/>
+      <c r="K186" s="26"/>
+    </row>
+    <row r="187" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="9"/>
       <c r="B187" s="10"/>
       <c r="C187" s="16"/>
@@ -3131,10 +3129,10 @@
       <c r="G187" s="18"/>
       <c r="H187" s="14"/>
       <c r="I187" s="13"/>
-      <c r="J187" s="26"/>
-      <c r="K187" s="27"/>
-    </row>
-    <row r="188" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J187" s="13"/>
+      <c r="K187" s="26"/>
+    </row>
+    <row r="188" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="9"/>
       <c r="B188" s="10"/>
       <c r="C188" s="16"/>
@@ -3144,10 +3142,10 @@
       <c r="G188" s="18"/>
       <c r="H188" s="14"/>
       <c r="I188" s="13"/>
-      <c r="J188" s="26"/>
-      <c r="K188" s="27"/>
-    </row>
-    <row r="189" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J188" s="13"/>
+      <c r="K188" s="26"/>
+    </row>
+    <row r="189" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="9"/>
       <c r="B189" s="10"/>
       <c r="C189" s="16"/>
@@ -3157,10 +3155,10 @@
       <c r="G189" s="18"/>
       <c r="H189" s="14"/>
       <c r="I189" s="13"/>
-      <c r="J189" s="26"/>
-      <c r="K189" s="27"/>
-    </row>
-    <row r="190" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J189" s="13"/>
+      <c r="K189" s="26"/>
+    </row>
+    <row r="190" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A190" s="9"/>
       <c r="B190" s="10"/>
       <c r="C190" s="16"/>
@@ -3170,10 +3168,10 @@
       <c r="G190" s="18"/>
       <c r="H190" s="14"/>
       <c r="I190" s="13"/>
-      <c r="J190" s="26"/>
-      <c r="K190" s="27"/>
-    </row>
-    <row r="191" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J190" s="13"/>
+      <c r="K190" s="26"/>
+    </row>
+    <row r="191" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="9"/>
       <c r="B191" s="10"/>
       <c r="C191" s="16"/>
@@ -3183,10 +3181,10 @@
       <c r="G191" s="18"/>
       <c r="H191" s="14"/>
       <c r="I191" s="13"/>
-      <c r="J191" s="26"/>
-      <c r="K191" s="27"/>
-    </row>
-    <row r="192" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J191" s="13"/>
+      <c r="K191" s="26"/>
+    </row>
+    <row r="192" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="9"/>
       <c r="B192" s="10"/>
       <c r="C192" s="16"/>
@@ -3196,10 +3194,10 @@
       <c r="G192" s="18"/>
       <c r="H192" s="14"/>
       <c r="I192" s="13"/>
-      <c r="J192" s="26"/>
-      <c r="K192" s="27"/>
-    </row>
-    <row r="193" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J192" s="13"/>
+      <c r="K192" s="26"/>
+    </row>
+    <row r="193" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="9"/>
       <c r="B193" s="10"/>
       <c r="C193" s="16"/>
@@ -3209,10 +3207,10 @@
       <c r="G193" s="18"/>
       <c r="H193" s="14"/>
       <c r="I193" s="13"/>
-      <c r="J193" s="26"/>
-      <c r="K193" s="27"/>
-    </row>
-    <row r="194" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J193" s="13"/>
+      <c r="K193" s="26"/>
+    </row>
+    <row r="194" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="9"/>
       <c r="B194" s="10"/>
       <c r="C194" s="16"/>
@@ -3222,10 +3220,10 @@
       <c r="G194" s="18"/>
       <c r="H194" s="14"/>
       <c r="I194" s="13"/>
-      <c r="J194" s="26"/>
-      <c r="K194" s="27"/>
-    </row>
-    <row r="195" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J194" s="13"/>
+      <c r="K194" s="26"/>
+    </row>
+    <row r="195" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="9"/>
       <c r="B195" s="10"/>
       <c r="C195" s="16"/>
@@ -3235,10 +3233,10 @@
       <c r="G195" s="18"/>
       <c r="H195" s="14"/>
       <c r="I195" s="13"/>
-      <c r="J195" s="26"/>
-      <c r="K195" s="27"/>
-    </row>
-    <row r="196" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J195" s="13"/>
+      <c r="K195" s="26"/>
+    </row>
+    <row r="196" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="9"/>
       <c r="B196" s="10"/>
       <c r="C196" s="16"/>
@@ -3248,10 +3246,10 @@
       <c r="G196" s="18"/>
       <c r="H196" s="14"/>
       <c r="I196" s="13"/>
-      <c r="J196" s="26"/>
-      <c r="K196" s="27"/>
-    </row>
-    <row r="197" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J196" s="13"/>
+      <c r="K196" s="26"/>
+    </row>
+    <row r="197" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="9"/>
       <c r="B197" s="10"/>
       <c r="C197" s="16"/>
@@ -3261,10 +3259,10 @@
       <c r="G197" s="18"/>
       <c r="H197" s="14"/>
       <c r="I197" s="13"/>
-      <c r="J197" s="26"/>
-      <c r="K197" s="27"/>
-    </row>
-    <row r="198" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J197" s="13"/>
+      <c r="K197" s="26"/>
+    </row>
+    <row r="198" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="9"/>
       <c r="B198" s="10"/>
       <c r="C198" s="16"/>
@@ -3274,10 +3272,10 @@
       <c r="G198" s="18"/>
       <c r="H198" s="14"/>
       <c r="I198" s="13"/>
-      <c r="J198" s="26"/>
-      <c r="K198" s="27"/>
-    </row>
-    <row r="199" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J198" s="13"/>
+      <c r="K198" s="26"/>
+    </row>
+    <row r="199" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A199" s="9"/>
       <c r="B199" s="10"/>
       <c r="C199" s="16"/>
@@ -3287,10 +3285,10 @@
       <c r="G199" s="18"/>
       <c r="H199" s="14"/>
       <c r="I199" s="13"/>
-      <c r="J199" s="26"/>
-      <c r="K199" s="27"/>
-    </row>
-    <row r="200" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J199" s="13"/>
+      <c r="K199" s="26"/>
+    </row>
+    <row r="200" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A200" s="9"/>
       <c r="B200" s="10"/>
       <c r="C200" s="16"/>
@@ -3300,10 +3298,10 @@
       <c r="G200" s="18"/>
       <c r="H200" s="14"/>
       <c r="I200" s="13"/>
-      <c r="J200" s="26"/>
-      <c r="K200" s="27"/>
-    </row>
-    <row r="201" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J200" s="13"/>
+      <c r="K200" s="26"/>
+    </row>
+    <row r="201" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A201" s="9"/>
       <c r="B201" s="10"/>
       <c r="C201" s="16"/>
@@ -3313,10 +3311,10 @@
       <c r="G201" s="18"/>
       <c r="H201" s="14"/>
       <c r="I201" s="13"/>
-      <c r="J201" s="26"/>
-      <c r="K201" s="27"/>
-    </row>
-    <row r="202" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J201" s="13"/>
+      <c r="K201" s="26"/>
+    </row>
+    <row r="202" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="9"/>
       <c r="B202" s="10"/>
       <c r="C202" s="16"/>
@@ -3326,10 +3324,10 @@
       <c r="G202" s="18"/>
       <c r="H202" s="14"/>
       <c r="I202" s="13"/>
-      <c r="J202" s="26"/>
-      <c r="K202" s="27"/>
-    </row>
-    <row r="203" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J202" s="13"/>
+      <c r="K202" s="26"/>
+    </row>
+    <row r="203" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="9"/>
       <c r="B203" s="10"/>
       <c r="C203" s="16"/>
@@ -3339,10 +3337,10 @@
       <c r="G203" s="18"/>
       <c r="H203" s="14"/>
       <c r="I203" s="13"/>
-      <c r="J203" s="26"/>
-      <c r="K203" s="27"/>
-    </row>
-    <row r="204" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J203" s="13"/>
+      <c r="K203" s="26"/>
+    </row>
+    <row r="204" spans="1:11" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="9"/>
       <c r="B204" s="10"/>
       <c r="C204" s="16"/>
@@ -3352,8 +3350,8 @@
       <c r="G204" s="18"/>
       <c r="H204" s="14"/>
       <c r="I204" s="13"/>
-      <c r="J204" s="26"/>
-      <c r="K204" s="27"/>
+      <c r="J204" s="13"/>
+      <c r="K204" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3367,7 +3365,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3379,7 +3377,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
